--- a/homework6.xlsx
+++ b/homework6.xlsx
@@ -422,187 +422,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>0.21056564957049406</c:v>
+                  <c:v>0.19999999999984872</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2118155155518372</c:v>
+                  <c:v>0.20000000000001233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21283618621481529</c:v>
+                  <c:v>0.19999999999996029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21369141541244308</c:v>
+                  <c:v>0.20000000000000542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21442214508503804</c:v>
+                  <c:v>0.19999999999998058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21505616682409992</c:v>
+                  <c:v>0.1999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21561316656479604</c:v>
+                  <c:v>0.2000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21610756772886688</c:v>
+                  <c:v>0.20000000000000079</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21655023224525477</c:v>
+                  <c:v>0.20000000000000182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2169495285111728</c:v>
+                  <c:v>0.20000000000000254</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21731202911450587</c:v>
+                  <c:v>0.19999999999999776</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21764298213181907</c:v>
+                  <c:v>0.20000000000000137</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21794663859412841</c:v>
+                  <c:v>0.19999999999999701</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21822648555279386</c:v>
+                  <c:v>0.19999999999999779</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21848541542236025</c:v>
+                  <c:v>0.20000000000000046</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21872585126105926</c:v>
+                  <c:v>0.19999999999999946</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21894984095492379</c:v>
+                  <c:v>0.19999999999999987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21915912907026869</c:v>
+                  <c:v>0.19999999999999962</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21935521242235262</c:v>
+                  <c:v>0.20000000000000023</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.21953938360239178</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21971276547721594</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.21987633882704299</c:v>
+                  <c:v>0.20000000000000037</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.22003096469400171</c:v>
+                  <c:v>0.20000000000000034</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.22017740259799801</c:v>
+                  <c:v>0.19999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.22031632548399716</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.22044833205838821</c:v>
+                  <c:v>0.1999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.22057395702459343</c:v>
+                  <c:v>0.20000000000000051</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.22069367962100761</c:v>
+                  <c:v>0.19999999999999937</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.22080793078336447</c:v>
+                  <c:v>0.20000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.22091709919064587</c:v>
+                  <c:v>0.20000000000000062</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.22102153640244832</c:v>
+                  <c:v>0.19999999999999959</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.22112156125372426</c:v>
+                  <c:v>0.19999999999999929</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.22121746363781117</c:v>
+                  <c:v>0.2000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.2213095077803027</c:v>
+                  <c:v>0.19999999999999976</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.22139793508383424</c:v>
+                  <c:v>0.19999999999999896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.22148296660657124</c:v>
+                  <c:v>0.19999999999999968</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.22156480522493069</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.22164363752207658</c:v>
+                  <c:v>0.20000000000000115</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2217196354380544</c:v>
+                  <c:v>0.19999999999999973</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.22179295771318799</c:v>
+                  <c:v>0.20000000000000034</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.22186375115333573</c:v>
+                  <c:v>0.20000000000000109</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.22193215174294587</c:v>
+                  <c:v>0.19999999999999885</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.22199828562900475</c:v>
+                  <c:v>0.19999999999999873</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.22206226999602185</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.22212421384921038</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2221842187195163</c:v>
+                  <c:v>0.19999999999999823</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2222423793013148</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.22229878403092629</c:v>
+                  <c:v>0.19999999999999776</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.22235351561171929</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.22240665149016969</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.22245826428629695</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.2225084221813588</c:v>
+                  <c:v>0.20000000000000401</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.22255718926594018</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.22260462585128465</c:v>
+                  <c:v>0.19999999999998905</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.22265078874814959</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.22269573151633729</c:v>
+                  <c:v>0.19999999999999232</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.22273950468955458</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.22278215597939419</c:v>
+                  <c:v>0.20000000000001103</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.22282373046236525</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2228642707527223</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.22290381716454172</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,11 +1023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="308180528"/>
-        <c:axId val="308182880"/>
+        <c:axId val="305595784"/>
+        <c:axId val="305596960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="308180528"/>
+        <c:axId val="305595784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="130"/>
@@ -1086,12 +1086,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308182880"/>
+        <c:crossAx val="305596960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308182880"/>
+        <c:axId val="305596960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -1150,7 +1150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308180528"/>
+        <c:crossAx val="305595784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2087,7 +2087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2111,11 +2113,11 @@
       </c>
       <c r="D2">
         <f>_xll.NJR.PUT.VALUE(C3, C4, C5, C6, D11:D82)</f>
-        <v>4.4064993840811866</v>
+        <v>3.9877611676744777</v>
       </c>
       <c r="E2">
         <f>C2-D2</f>
-        <v>-0.41873821640669462</v>
+        <v>1.4210854715202004E-14</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -2158,11 +2160,11 @@
       </c>
       <c r="M3">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I3, $C$6, $D$11:$D$82)</f>
-        <v>7.9946016784798735E-4</v>
+        <v>3.7401735690009708E-4</v>
       </c>
       <c r="N3">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M3, I3, $C$6)</f>
-        <v>0.21056564957049406</v>
+        <v>0.19999999999984872</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -2177,7 +2179,7 @@
         <v>71</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="0">0.2+$J$1*(I4-200)+$K$1*(I4-100)^2/2</f>
+        <f t="shared" ref="J4:J63" si="0">0.2+$J$1*(I4-200)+$K$1*(I4-100)^2/2</f>
         <v>0.24205000000000002</v>
       </c>
       <c r="K4">
@@ -2190,11 +2192,11 @@
       </c>
       <c r="M4">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I4, $C$6, $D$11:$D$82)</f>
-        <v>1.4555047794976572E-3</v>
+        <v>6.6190274539327035E-4</v>
       </c>
       <c r="N4">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M4, I4, $C$6)</f>
-        <v>0.2118155155518372</v>
+        <v>0.20000000000001233</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -2222,11 +2224,11 @@
       </c>
       <c r="M5">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I5, $C$6, $D$11:$D$82)</f>
-        <v>2.5269582158480297E-3</v>
+        <v>1.1416834541549473E-3</v>
       </c>
       <c r="N5">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M5, I5, $C$6)</f>
-        <v>0.21283618621481529</v>
+        <v>0.19999999999996029</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -2260,11 +2262,11 @@
       </c>
       <c r="M6">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I6, $C$6, $D$11:$D$82)</f>
-        <v>4.2189960169101148E-3</v>
+        <v>1.9213408279627892E-3</v>
       </c>
       <c r="N6">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M6, I6, $C$6)</f>
-        <v>0.21369141541244308</v>
+        <v>0.20000000000000542</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -2302,11 +2304,11 @@
       </c>
       <c r="M7">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I7, $C$6, $D$11:$D$82)</f>
-        <v>6.8125834380762251E-3</v>
+        <v>3.1579703105587276E-3</v>
       </c>
       <c r="N7">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M7, I7, $C$6)</f>
-        <v>0.21442214508503804</v>
+        <v>0.19999999999998058</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -2337,11 +2339,11 @@
       </c>
       <c r="M8">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I8, $C$6, $D$11:$D$82)</f>
-        <v>1.0682639268567939E-2</v>
+        <v>5.0742901084045444E-3</v>
       </c>
       <c r="N8">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M8, I8, $C$6)</f>
-        <v>0.21505616682409992</v>
+        <v>0.1999999999999994</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -2363,11 +2365,11 @@
       </c>
       <c r="M9">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I9, $C$6, $D$11:$D$82)</f>
-        <v>1.6317361452055534E-2</v>
+        <v>7.9782380089920002E-3</v>
       </c>
       <c r="N9">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M9, I9, $C$6)</f>
-        <v>0.21561316656479604</v>
+        <v>0.2000000000000014</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -2395,11 +2397,11 @@
       </c>
       <c r="M10">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I10, $C$6, $D$11:$D$82)</f>
-        <v>2.4337833162675793E-2</v>
+        <v>1.2285340239855724E-2</v>
       </c>
       <c r="N10">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M10, I10, $C$6)</f>
-        <v>0.21610756772886688</v>
+        <v>0.20000000000000079</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -2435,11 +2437,11 @@
       </c>
       <c r="M11">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I11, $C$6, $D$11:$D$82)</f>
-        <v>3.5516809557145201E-2</v>
+        <v>1.8543180097094436E-2</v>
       </c>
       <c r="N11">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M11, I11, $C$6)</f>
-        <v>0.21655023224525477</v>
+        <v>0.20000000000000182</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -2447,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f>E11*$E$8</f>
@@ -2475,11 +2477,11 @@
       </c>
       <c r="M12">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I12, $C$6, $D$11:$D$82)</f>
-        <v>5.0795422004748847E-2</v>
+        <v>2.7456906561141192E-2</v>
       </c>
       <c r="N12">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M12, I12, $C$6)</f>
-        <v>0.2169495285111728</v>
+        <v>0.20000000000000254</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -2516,11 +2518,11 @@
       </c>
       <c r="M13">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I13, $C$6, $D$11:$D$82)</f>
-        <v>7.1296452462159099E-2</v>
+        <v>3.9914343421841858E-2</v>
       </c>
       <c r="N13">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M13, I13, $C$6)</f>
-        <v>0.21731202911450587</v>
+        <v>0.19999999999999776</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -2557,11 +2559,11 @@
       </c>
       <c r="M14">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I14, $C$6, $D$11:$D$82)</f>
-        <v>9.8332844119209284E-2</v>
+        <v>5.7008934088091934E-2</v>
       </c>
       <c r="N14">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M14, I14, $C$6)</f>
-        <v>0.21764298213181907</v>
+        <v>0.20000000000000137</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -2598,11 +2600,11 @@
       </c>
       <c r="M15">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I15, $C$6, $D$11:$D$82)</f>
-        <v>0.13341023521011053</v>
+        <v>8.0058534547874149E-2</v>
       </c>
       <c r="N15">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M15, I15, $C$6)</f>
-        <v>0.21794663859412841</v>
+        <v>0.19999999999999701</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -2639,11 +2641,11 @@
       </c>
       <c r="M16">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I16, $C$6, $D$11:$D$82)</f>
-        <v>0.17822253044692982</v>
+        <v>0.11061799019469065</v>
       </c>
       <c r="N16">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M16, I16, $C$6)</f>
-        <v>0.21822648555279386</v>
+        <v>0.19999999999999779</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
@@ -2680,11 +2682,11 @@
       </c>
       <c r="M17">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I17, $C$6, $D$11:$D$82)</f>
-        <v>0.23463984771021096</v>
+        <v>0.15048353300942452</v>
       </c>
       <c r="N17">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M17, I17, $C$6)</f>
-        <v>0.21848541542236025</v>
+        <v>0.20000000000000046</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
@@ -2721,11 +2723,11 @@
       </c>
       <c r="M18">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I18, $C$6, $D$11:$D$82)</f>
-        <v>0.30468857539083061</v>
+        <v>0.20168732797264965</v>
       </c>
       <c r="N18">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M18, I18, $C$6)</f>
-        <v>0.21872585126105926</v>
+        <v>0.19999999999999946</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
@@ -2762,11 +2764,11 @@
       </c>
       <c r="M19">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I19, $C$6, $D$11:$D$82)</f>
-        <v>0.3905237191734976</v>
+        <v>0.26648097458621312</v>
       </c>
       <c r="N19">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M19, I19, $C$6)</f>
-        <v>0.21894984095492379</v>
+        <v>0.19999999999999987</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
@@ -2803,11 +2805,11 @@
       </c>
       <c r="M20">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I20, $C$6, $D$11:$D$82)</f>
-        <v>0.49439417208607139</v>
+        <v>0.34730740212792988</v>
       </c>
       <c r="N20">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M20, I20, $C$6)</f>
-        <v>0.21915912907026869</v>
+        <v>0.19999999999999962</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
@@ -2844,11 +2846,11 @@
       </c>
       <c r="M21">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I21, $C$6, $D$11:$D$82)</f>
-        <v>0.61860197267919048</v>
+        <v>0.44676133725329592</v>
       </c>
       <c r="N21">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M21, I21, $C$6)</f>
-        <v>0.21935521242235262</v>
+        <v>0.20000000000000023</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
@@ -2885,11 +2887,11 @@
       </c>
       <c r="M22">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I22, $C$6, $D$11:$D$82)</f>
-        <v>0.76545698956653752</v>
+        <v>0.56753930674006803</v>
       </c>
       <c r="N22">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M22, I22, $C$6)</f>
-        <v>0.21953938360239178</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
@@ -2926,11 +2928,11 @@
       </c>
       <c r="M23">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I23, $C$6, $D$11:$D$82)</f>
-        <v>0.937228757809212</v>
+        <v>0.71238089607366639</v>
       </c>
       <c r="N23">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M23, I23, $C$6)</f>
-        <v>0.21971276547721594</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
@@ -2967,11 +2969,11 @@
       </c>
       <c r="M24">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I24, $C$6, $D$11:$D$82)</f>
-        <v>1.1360973731834676</v>
+        <v>0.88400364647703711</v>
       </c>
       <c r="N24">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M24, I24, $C$6)</f>
-        <v>0.21987633882704299</v>
+        <v>0.20000000000000037</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
@@ -3008,11 +3010,11 @@
       </c>
       <c r="M25">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I25, $C$6, $D$11:$D$82)</f>
-        <v>1.3641054131304031</v>
+        <v>1.0850344779622958</v>
       </c>
       <c r="N25">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M25, I25, $C$6)</f>
-        <v>0.22003096469400171</v>
+        <v>0.20000000000000034</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
@@ -3049,11 +3051,11 @@
       </c>
       <c r="M26">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I26, $C$6, $D$11:$D$82)</f>
-        <v>1.6231127970611254</v>
+        <v>1.3179408286409853</v>
       </c>
       <c r="N26">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M26, I26, $C$6)</f>
-        <v>0.22017740259799801</v>
+        <v>0.19999999999999982</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
@@ -3090,11 +3092,11 @@
       </c>
       <c r="M27">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I27, $C$6, $D$11:$D$82)</f>
-        <v>1.9147563320607048</v>
+        <v>1.5849647756893859</v>
       </c>
       <c r="N27">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M27, I27, $C$6)</f>
-        <v>0.22031632548399716</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
@@ -3131,11 +3133,11 @@
       </c>
       <c r="M28">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I28, $C$6, $D$11:$D$82)</f>
-        <v>2.2404154292980394</v>
+        <v>1.8880632480607176</v>
       </c>
       <c r="N28">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M28, I28, $C$6)</f>
-        <v>0.22044833205838821</v>
+        <v>0.1999999999999991</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
@@ -3172,11 +3174,11 @@
       </c>
       <c r="M29">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I29, $C$6, $D$11:$D$82)</f>
-        <v>2.6011851439508007</v>
+        <v>2.2288570738163145</v>
       </c>
       <c r="N29">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M29, I29, $C$6)</f>
-        <v>0.22057395702459343</v>
+        <v>0.20000000000000051</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
@@ -3213,11 +3215,11 @@
       </c>
       <c r="M30">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I30, $C$6, $D$11:$D$82)</f>
-        <v>2.9978573130985851</v>
+        <v>2.6085910627585704</v>
       </c>
       <c r="N30">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M30, I30, $C$6)</f>
-        <v>0.22069367962100761</v>
+        <v>0.19999999999999937</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
@@ -3254,11 +3256,11 @@
       </c>
       <c r="M31">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I31, $C$6, $D$11:$D$82)</f>
-        <v>3.430910168816915</v>
+        <v>3.0281066582734937</v>
       </c>
       <c r="N31">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M31, I31, $C$6)</f>
-        <v>0.22080793078336447</v>
+        <v>0.20000000000000043</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
@@ -3295,11 +3297,11 @@
       </c>
       <c r="M32">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I32, $C$6, $D$11:$D$82)</f>
-        <v>3.9005064134975811</v>
+        <v>3.4878279587501879</v>
       </c>
       <c r="N32">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M32, I32, $C$6)</f>
-        <v>0.22091709919064587</v>
+        <v>0.20000000000000062</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
@@ -3336,11 +3338,11 @@
       </c>
       <c r="M33">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I33, $C$6, $D$11:$D$82)</f>
-        <v>4.4064993840811866</v>
+        <v>3.9877611676744777</v>
       </c>
       <c r="N33">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M33, I33, $C$6)</f>
-        <v>0.22102153640244832</v>
+        <v>0.19999999999999959</v>
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
@@ -3377,11 +3379,11 @@
       </c>
       <c r="M34">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I34, $C$6, $D$11:$D$82)</f>
-        <v>4.9484466199028319</v>
+        <v>4.5275068370385299</v>
       </c>
       <c r="N34">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M34, I34, $C$6)</f>
-        <v>0.22112156125372426</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.25">
@@ -3418,11 +3420,11 @@
       </c>
       <c r="M35">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I35, $C$6, $D$11:$D$82)</f>
-        <v>5.525629898455108</v>
+        <v>5.1062836665495652</v>
       </c>
       <c r="N35">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M35, I35, $C$6)</f>
-        <v>0.22121746363781117</v>
+        <v>0.2000000000000004</v>
       </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.25">
@@ -3459,11 +3461,11 @@
       </c>
       <c r="M36">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I36, $C$6, $D$11:$D$82)</f>
-        <v>6.1370806222696928</v>
+        <v>5.7229621445706087</v>
       </c>
       <c r="N36">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M36, I36, $C$6)</f>
-        <v>0.2213095077803027</v>
+        <v>0.19999999999999976</v>
       </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.25">
@@ -3500,11 +3502,11 @@
       </c>
       <c r="M37">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I37, $C$6, $D$11:$D$82)</f>
-        <v>6.7816093306290384</v>
+        <v>6.376105985444056</v>
       </c>
       <c r="N37">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M37, I37, $C$6)</f>
-        <v>0.22139793508383424</v>
+        <v>0.19999999999999896</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.25">
@@ -3541,11 +3543,11 @@
       </c>
       <c r="M38">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I38, $C$6, $D$11:$D$82)</f>
-        <v>7.4578380694521371</v>
+        <v>7.0640191378988249</v>
       </c>
       <c r="N38">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M38, I38, $C$6)</f>
-        <v>0.22148296660657124</v>
+        <v>0.19999999999999968</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.25">
@@ -3582,11 +3584,11 @@
       </c>
       <c r="M39">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I39, $C$6, $D$11:$D$82)</f>
-        <v>8.1642343750353774</v>
+        <v>7.7847961044341929</v>
       </c>
       <c r="N39">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M39, I39, $C$6)</f>
-        <v>0.22156480522493069</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
@@ -3623,11 +3625,11 @@
       </c>
       <c r="M40">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I40, $C$6, $D$11:$D$82)</f>
-        <v>8.8991457030070364</v>
+        <v>8.5363734057617791</v>
       </c>
       <c r="N40">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M40, I40, $C$6)</f>
-        <v>0.22164363752207658</v>
+        <v>0.20000000000000115</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.25">
@@ -3664,11 +3666,11 @@
       </c>
       <c r="M41">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I41, $C$6, $D$11:$D$82)</f>
-        <v>9.6608332517211011</v>
+        <v>9.3165802243033653</v>
       </c>
       <c r="N41">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M41, I41, $C$6)</f>
-        <v>0.2217196354380544</v>
+        <v>0.19999999999999973</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
@@ -3705,11 +3707,11 @@
       </c>
       <c r="M42">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I42, $C$6, $D$11:$D$82)</f>
-        <v>10.447504277397528</v>
+        <v>10.123186539019301</v>
       </c>
       <c r="N42">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M42, I42, $C$6)</f>
-        <v>0.22179295771318799</v>
+        <v>0.20000000000000034</v>
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.25">
@@ -3746,11 +3748,11 @@
       </c>
       <c r="M43">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I43, $C$6, $D$11:$D$82)</f>
-        <v>11.257342164796739</v>
+        <v>10.953947391857241</v>
       </c>
       <c r="N43">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M43, I43, $C$6)</f>
-        <v>0.22186375115333573</v>
+        <v>0.20000000000000109</v>
       </c>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.25">
@@ -3787,11 +3789,11 @@
       </c>
       <c r="M44">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I44, $C$6, $D$11:$D$82)</f>
-        <v>12.088533691132398</v>
+        <v>11.806642276452763</v>
       </c>
       <c r="N44">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M44, I44, $C$6)</f>
-        <v>0.22193215174294587</v>
+        <v>0.19999999999999885</v>
       </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.25">
@@ -3828,11 +3830,11 @@
       </c>
       <c r="M45">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I45, $C$6, $D$11:$D$82)</f>
-        <v>12.939293092724554</v>
+        <v>12.679108988059127</v>
       </c>
       <c r="N45">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M45, I45, $C$6)</f>
-        <v>0.22199828562900475</v>
+        <v>0.19999999999999873</v>
       </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.25">
@@ -3869,11 +3871,11 @@
       </c>
       <c r="M46">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I46, $C$6, $D$11:$D$82)</f>
-        <v>13.807882705769259</v>
+        <v>13.569271600088314</v>
       </c>
       <c r="N46">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M46, I46, $C$6)</f>
-        <v>0.22206226999602185</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.25">
@@ -3910,11 +3912,11 @@
       </c>
       <c r="M47">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I47, $C$6, $D$11:$D$82)</f>
-        <v>14.692630098632435</v>
+        <v>14.47516252219144</v>
       </c>
       <c r="N47">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M47, I47, $C$6)</f>
-        <v>0.22212421384921038</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.25">
@@ -3951,11 +3953,11 @@
       </c>
       <c r="M48">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I48, $C$6, $D$11:$D$82)</f>
-        <v>15.591941739227877</v>
+        <v>15.394938837716381</v>
       </c>
       <c r="N48">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M48, I48, $C$6)</f>
-        <v>0.2221842187195163</v>
+        <v>0.19999999999999823</v>
       </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.25">
@@ -3992,11 +3994,11 @@
       </c>
       <c r="M49">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I49, $C$6, $D$11:$D$82)</f>
-        <v>16.50431334505187</v>
+        <v>16.326893309710854</v>
       </c>
       <c r="N49">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M49, I49, $C$6)</f>
-        <v>0.2222423793013148</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.25">
@@ -4033,11 +4035,11 @@
       </c>
       <c r="M50">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I50, $C$6, $D$11:$D$82)</f>
-        <v>17.42833714458645</v>
+        <v>17.269460583629083</v>
       </c>
       <c r="N50">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M50, I50, $C$6)</f>
-        <v>0.22229878403092629</v>
+        <v>0.19999999999999776</v>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.25">
@@ -4074,11 +4076,11 @@
       </c>
       <c r="M51">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I51, $C$6, $D$11:$D$82)</f>
-        <v>18.362706337606909</v>
+        <v>18.221219204170353</v>
       </c>
       <c r="N51">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M51, I51, $C$6)</f>
-        <v>0.22235351561171929</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.25">
@@ -4115,11 +4117,11 @@
       </c>
       <c r="M52">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I52, $C$6, $D$11:$D$82)</f>
-        <v>19.306217079991569</v>
+        <v>19.180890108309015</v>
       </c>
       <c r="N52">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M52, I52, $C$6)</f>
-        <v>0.22240665149016969</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.25">
@@ -4156,11 +4158,11 @@
       </c>
       <c r="M53">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I53, $C$6, $D$11:$D$82)</f>
-        <v>20.25776833817919</v>
+        <v>20.14733226325697</v>
       </c>
       <c r="N53">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M53, I53, $C$6)</f>
-        <v>0.22245826428629695</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.25">
@@ -4197,11 +4199,11 @@
       </c>
       <c r="M54">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I54, $C$6, $D$11:$D$82)</f>
-        <v>21.216359962151969</v>
+        <v>21.119536094302731</v>
       </c>
       <c r="N54">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M54, I54, $C$6)</f>
-        <v>0.2225084221813588</v>
+        <v>0.20000000000000401</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.25">
@@ -4238,11 +4240,11 @@
       </c>
       <c r="M55">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I55, $C$6, $D$11:$D$82)</f>
-        <v>22.181089316633233</v>
+        <v>22.096615300806519</v>
       </c>
       <c r="N55">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M55, I55, $C$6)</f>
-        <v>0.22255718926594018</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.25">
@@ -4279,11 +4281,11 @@
       </c>
       <c r="M56">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I56, $C$6, $D$11:$D$82)</f>
-        <v>23.151146790981485</v>
+        <v>23.077797596311726</v>
       </c>
       <c r="N56">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M56, I56, $C$6)</f>
-        <v>0.22260462585128465</v>
+        <v>0.19999999999998905</v>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.25">
@@ -4320,11 +4322,11 @@
       </c>
       <c r="M57">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I57, $C$6, $D$11:$D$82)</f>
-        <v>24.125810481807733</v>
+        <v>24.062414837222818</v>
       </c>
       <c r="N57">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M57, I57, $C$6)</f>
-        <v>0.22265078874814959</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.25">
@@ -4361,11 +4363,11 @@
       </c>
       <c r="M58">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I58, $C$6, $D$11:$D$82)</f>
-        <v>25.10444031112884</v>
+        <v>25.049892929277306</v>
       </c>
       <c r="N58">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M58, I58, $C$6)</f>
-        <v>0.22269573151633729</v>
+        <v>0.19999999999999232</v>
       </c>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.25">
@@ -4402,11 +4404,11 @@
       </c>
       <c r="M59">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I59, $C$6, $D$11:$D$82)</f>
-        <v>26.086471809104225</v>
+        <v>26.039741826510522</v>
       </c>
       <c r="N59">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M59, I59, $C$6)</f>
-        <v>0.22273950468955458</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.25">
@@ -4443,11 +4445,11 @@
       </c>
       <c r="M60">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I60, $C$6, $D$11:$D$82)</f>
-        <v>27.07140975588753</v>
+        <v>27.031545866893083</v>
       </c>
       <c r="N60">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M60, I60, $C$6)</f>
-        <v>0.22278215597939419</v>
+        <v>0.20000000000001103</v>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.25">
@@ -4484,11 +4486,11 @@
       </c>
       <c r="M61">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I61, $C$6, $D$11:$D$82)</f>
-        <v>28.058821843330065</v>
+        <v>28.024954624625238</v>
       </c>
       <c r="N61">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M61, I61, $C$6)</f>
-        <v>0.22282373046236525</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.25">
@@ -4525,11 +4527,11 @@
       </c>
       <c r="M62">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I62, $C$6, $D$11:$D$82)</f>
-        <v>29.048332485293486</v>
+        <v>29.01967440261366</v>
       </c>
       <c r="N62">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M62, I62, $C$6)</f>
-        <v>0.2228642707527223</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.25">
@@ -4566,11 +4568,11 @@
       </c>
       <c r="M63">
         <f>_xll.NJR.PUT.VALUE($C$3, $C$4, I63, $C$6, $D$11:$D$82)</f>
-        <v>30.039616875949989</v>
+        <v>30.01546044060332</v>
       </c>
       <c r="N63">
         <f>_xll.BLACK.PUT.IMPLIED.VOLATILTIY($C$3, M63, I63, $C$6)</f>
-        <v>0.22290381716454172</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.25">
